--- a/db/calendrier Ex printemps 2019-2020ML.xlsx
+++ b/db/calendrier Ex printemps 2019-2020ML.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FREELANCER-WORK\WEB DEVELOPEMENT\xampp\htdocs\Convocation\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7218176-0EB5-4D24-B52D-53AA14E1567D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="9630" activeTab="6"/>
+    <workbookView xWindow="16354" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMP" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="121">
   <si>
     <t>FILIERE</t>
   </si>
@@ -338,16 +344,61 @@
   </si>
   <si>
     <t>Réseaux 2</t>
+  </si>
+  <si>
+    <t>SM-S2</t>
+  </si>
+  <si>
+    <t>SMP-S4</t>
+  </si>
+  <si>
+    <t>SMP-S6</t>
+  </si>
+  <si>
+    <t>SMC-S4</t>
+  </si>
+  <si>
+    <t>SMC-S6</t>
+  </si>
+  <si>
+    <t>SVT-S2</t>
+  </si>
+  <si>
+    <t>SVI-S4</t>
+  </si>
+  <si>
+    <t>SVI-S6</t>
+  </si>
+  <si>
+    <t>STU-S4</t>
+  </si>
+  <si>
+    <t>STU-S6</t>
+  </si>
+  <si>
+    <t>SMIA-S2</t>
+  </si>
+  <si>
+    <t>SMA-S4</t>
+  </si>
+  <si>
+    <t>SMA-S6</t>
+  </si>
+  <si>
+    <t>SMI-S4</t>
+  </si>
+  <si>
+    <t>SMI-S6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +527,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -497,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1250,12 +1308,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1683,6 +1756,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1704,11 +1780,59 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1748,7 +1872,7 @@
         <xdr:cNvPr id="2" name="Line 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1954,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1863,9 +1987,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1898,6 +2039,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2073,43 +2231,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="13.5" thickTop="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="157"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="146" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="146" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="146" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="146" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="146" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="146" t="s">
         <v>4</v>
       </c>
@@ -2193,11 +2351,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="155">
         <v>44088</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -2207,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="147" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2380,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="147" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +2394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="147" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="147" t="s">
         <v>14</v>
       </c>
@@ -2264,7 +2422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="147" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="147" t="s">
         <v>14</v>
       </c>
@@ -2292,7 +2450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="148" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="148" t="s">
         <v>21</v>
       </c>
@@ -2320,7 +2478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="148" t="s">
         <v>21</v>
       </c>
@@ -2334,7 +2492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="148" t="s">
         <v>21</v>
       </c>
@@ -2348,7 +2506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="148" t="s">
         <v>21</v>
       </c>
@@ -2362,84 +2520,84 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickTop="1">
+    <row r="21" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:4" s="40" customFormat="1" ht="12.75"/>
-    <row r="34" spans="1:4" s="40" customFormat="1" ht="12.75"/>
-    <row r="35" spans="1:4" s="40" customFormat="1" ht="12.75"/>
-    <row r="36" spans="1:4" s="40" customFormat="1" ht="12.75"/>
-    <row r="37" spans="1:4" s="40" customFormat="1" ht="12.75"/>
-    <row r="38" spans="1:4">
+    <row r="33" spans="1:4" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:4" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:4" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2458,52 +2616,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="47"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="157"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="146" t="s">
         <v>4</v>
       </c>
@@ -2519,7 +2677,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="146" t="s">
         <v>4</v>
       </c>
@@ -2535,7 +2693,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:6" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="146" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2709,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="146" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2725,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="146" t="s">
         <v>4</v>
       </c>
@@ -2583,7 +2741,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="8" spans="1:6" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="146" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2757,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="146" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2772,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="150" t="s">
         <v>29</v>
       </c>
@@ -2629,7 +2787,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="150" t="s">
         <v>29</v>
       </c>
@@ -2644,7 +2802,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="150" t="s">
         <v>29</v>
       </c>
@@ -2659,7 +2817,7 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="150" t="s">
         <v>29</v>
       </c>
@@ -2674,7 +2832,7 @@
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="150" t="s">
         <v>29</v>
       </c>
@@ -2689,7 +2847,7 @@
       </c>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="150" t="s">
         <v>29</v>
       </c>
@@ -2704,7 +2862,7 @@
       </c>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="151" t="s">
         <v>33</v>
       </c>
@@ -2719,7 +2877,7 @@
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="151" t="s">
         <v>33</v>
       </c>
@@ -2735,7 +2893,7 @@
       <c r="E17" s="18"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="1:10" ht="27" thickTop="1" thickBot="1">
+    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="151" t="s">
         <v>33</v>
       </c>
@@ -2750,7 +2908,7 @@
       </c>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="151" t="s">
         <v>33</v>
       </c>
@@ -2765,7 +2923,7 @@
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="151" t="s">
         <v>33</v>
       </c>
@@ -2780,7 +2938,7 @@
       </c>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="151" t="s">
         <v>33</v>
       </c>
@@ -2795,7 +2953,7 @@
       </c>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="151" t="s">
         <v>33</v>
       </c>
@@ -2813,1843 +2971,1843 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1">
+    <row r="23" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="57"/>
       <c r="B24"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="18"/>
       <c r="D25" s="25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" s="40" customFormat="1" ht="12.75">
+    <row r="35" spans="1:5" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
     </row>
-    <row r="36" spans="1:5" s="40" customFormat="1" ht="12.75">
+    <row r="36" spans="1:5" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
     </row>
-    <row r="37" spans="1:5" s="40" customFormat="1" ht="12.75">
+    <row r="37" spans="1:5" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
     </row>
-    <row r="38" spans="1:5" ht="18">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="68"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
       <c r="E206"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
       <c r="E208"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
       <c r="E210"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
       <c r="E212"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
       <c r="E214"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
       <c r="E216"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
       <c r="E218"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
       <c r="E220"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
       <c r="E222"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
       <c r="E224"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
       <c r="E226"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
       <c r="E228"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
       <c r="E230"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
       <c r="E232"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
       <c r="E234"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
       <c r="E236"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
       <c r="E238"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
       <c r="E240"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
       <c r="E242"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
       <c r="E244"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
       <c r="E246"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
       <c r="E248"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
       <c r="E250"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
       <c r="E252"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
       <c r="E254"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
       <c r="E256"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
       <c r="E258"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
       <c r="E260"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
       <c r="E262"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="E274"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="E280"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="E282"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="E284"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="E286"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -4668,50 +4826,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="44" customWidth="1"/>
     <col min="2" max="2" width="11" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="101" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" style="101" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="16.5" thickTop="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:119" ht="16.8" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:119" ht="16.5" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161"/>
+    <row r="2" spans="1:119" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="157"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="72"/>
     </row>
-    <row r="3" spans="1:119" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:119" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="149" t="s">
         <v>40</v>
       </c>
@@ -4726,7 +4884,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:119" s="69" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:119" s="69" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="149" t="s">
         <v>40</v>
       </c>
@@ -4741,7 +4899,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:119" s="70" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:119" s="70" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="149" t="s">
         <v>40</v>
       </c>
@@ -4756,7 +4914,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:119" s="9" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:119" s="9" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>40</v>
       </c>
@@ -4771,7 +4929,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:119" s="9" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:119" s="9" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="149" t="s">
         <v>40</v>
       </c>
@@ -4786,7 +4944,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:119" s="9" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:119" s="9" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="149" t="s">
         <v>40</v>
       </c>
@@ -4801,7 +4959,7 @@
       </c>
       <c r="E8" s="80"/>
     </row>
-    <row r="9" spans="1:119" s="9" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:119" s="9" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="149" t="s">
         <v>40</v>
       </c>
@@ -4816,7 +4974,7 @@
       </c>
       <c r="E9" s="80"/>
     </row>
-    <row r="10" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="147" t="s">
         <v>47</v>
       </c>
@@ -4850,7 +5008,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="147" t="s">
         <v>47</v>
       </c>
@@ -4881,7 +5039,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:119" s="71" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:119" s="71" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="147" t="s">
         <v>47</v>
       </c>
@@ -4912,7 +5070,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="147" t="s">
         <v>47</v>
       </c>
@@ -5041,7 +5199,7 @@
       <c r="DN13" s="11"/>
       <c r="DO13" s="11"/>
     </row>
-    <row r="14" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="147" t="s">
         <v>47</v>
       </c>
@@ -5170,7 +5328,7 @@
       <c r="DN14" s="11"/>
       <c r="DO14" s="11"/>
     </row>
-    <row r="15" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="147" t="s">
         <v>47</v>
       </c>
@@ -5299,7 +5457,7 @@
       <c r="DN15" s="11"/>
       <c r="DO15" s="11"/>
     </row>
-    <row r="16" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="153" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +5586,7 @@
       <c r="DN16" s="11"/>
       <c r="DO16" s="11"/>
     </row>
-    <row r="17" spans="1:36" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:36" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="153" t="s">
         <v>54</v>
       </c>
@@ -5473,7 +5631,7 @@
       <c r="AH17" s="80"/>
       <c r="AI17" s="80"/>
     </row>
-    <row r="18" spans="1:36" s="81" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:36" s="81" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153" t="s">
         <v>54</v>
       </c>
@@ -5518,7 +5676,7 @@
       <c r="AH18" s="80"/>
       <c r="AI18" s="80"/>
     </row>
-    <row r="19" spans="1:36" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:36" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="153" t="s">
         <v>54</v>
       </c>
@@ -5562,7 +5720,7 @@
       <c r="AH19" s="80"/>
       <c r="AI19" s="80"/>
     </row>
-    <row r="20" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
         <v>54</v>
       </c>
@@ -5606,7 +5764,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="153" t="s">
         <v>54</v>
       </c>
@@ -5650,7 +5808,7 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="47"/>
     </row>
-    <row r="22" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="153" t="s">
         <v>54</v>
       </c>
@@ -5695,7 +5853,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="153" t="s">
         <v>54</v>
       </c>
@@ -5740,7 +5898,7 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="47"/>
     </row>
-    <row r="24" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="153" t="s">
         <v>54</v>
       </c>
@@ -5786,7 +5944,7 @@
       <c r="AI24" s="47"/>
       <c r="AJ24" s="47"/>
     </row>
-    <row r="25" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
+    <row r="25" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="100"/>
       <c r="C25" s="100"/>
@@ -5824,7 +5982,7 @@
       <c r="AI25" s="47"/>
       <c r="AJ25" s="47"/>
     </row>
-    <row r="26" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -5862,7 +6020,7 @@
       <c r="AI26" s="47"/>
       <c r="AJ26" s="47"/>
     </row>
-    <row r="27" spans="1:36" s="9" customFormat="1">
+    <row r="27" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -5900,7 +6058,7 @@
       <c r="AI27" s="47"/>
       <c r="AJ27" s="47"/>
     </row>
-    <row r="28" spans="1:36" s="9" customFormat="1">
+    <row r="28" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -5938,7 +6096,7 @@
       <c r="AI28" s="47"/>
       <c r="AJ28" s="47"/>
     </row>
-    <row r="29" spans="1:36" s="9" customFormat="1">
+    <row r="29" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -5973,7 +6131,7 @@
       <c r="AF29" s="47"/>
       <c r="AG29" s="47"/>
     </row>
-    <row r="30" spans="1:36" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="30" spans="1:36" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="102"/>
       <c r="B30" s="102"/>
       <c r="C30" s="102"/>
@@ -6008,7 +6166,7 @@
       <c r="AF30" s="47"/>
       <c r="AG30" s="47"/>
     </row>
-    <row r="31" spans="1:36" s="9" customFormat="1" ht="19.5" customHeight="1">
+    <row r="31" spans="1:36" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -6043,7 +6201,7 @@
       <c r="AF31" s="47"/>
       <c r="AG31" s="47"/>
     </row>
-    <row r="32" spans="1:36" s="9" customFormat="1">
+    <row r="32" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -6078,7 +6236,7 @@
       <c r="AF32" s="47"/>
       <c r="AG32" s="47"/>
     </row>
-    <row r="33" spans="1:33" s="9" customFormat="1">
+    <row r="33" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -6113,11 +6271,11 @@
       <c r="AF33" s="47"/>
       <c r="AG33" s="47"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
     </row>
-    <row r="35" spans="1:33" s="40" customFormat="1" ht="12.75">
+    <row r="35" spans="1:33" s="40" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -6125,7 +6283,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="64"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -6134,7 +6292,7 @@
       <c r="F36" s="64"/>
       <c r="G36" s="40"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -6143,7 +6301,7 @@
       <c r="F37" s="65"/>
       <c r="G37" s="40"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6152,7 +6310,7 @@
       <c r="F38" s="66"/>
       <c r="G38" s="40"/>
     </row>
-    <row r="39" spans="1:33" ht="18">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6161,7 +6319,7 @@
       <c r="F39" s="68"/>
       <c r="G39" s="40"/>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -6170,7 +6328,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -6179,7 +6337,7 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -6188,7 +6346,7 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -6197,7 +6355,7 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -6206,7 +6364,7 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -6215,7 +6373,7 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -6224,7 +6382,7 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -6233,7 +6391,7 @@
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -6242,7 +6400,7 @@
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -6251,7 +6409,7 @@
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -6260,7 +6418,7 @@
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -6269,7 +6427,7 @@
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6278,7 +6436,7 @@
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -6287,7 +6445,7 @@
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -6296,7 +6454,7 @@
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -6305,7 +6463,7 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -6314,7 +6472,7 @@
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -6323,7 +6481,7 @@
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -6332,7 +6490,7 @@
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -6341,7 +6499,7 @@
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -6350,7 +6508,7 @@
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -6359,7 +6517,7 @@
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -6368,7 +6526,7 @@
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -6377,7 +6535,7 @@
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -6386,39 +6544,39 @@
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="40"/>
       <c r="G71" s="40"/>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="40"/>
       <c r="G72" s="40"/>
     </row>
-    <row r="73" spans="6:7">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="40"/>
       <c r="G73" s="40"/>
     </row>
@@ -6434,38 +6592,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="101" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="101" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -6489,11 +6647,11 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161"/>
+    <row r="2" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="157"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="72"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6512,7 +6670,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:119" s="71" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:119" s="71" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="149" t="s">
         <v>40</v>
       </c>
@@ -6543,7 +6701,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="149" t="s">
         <v>40</v>
       </c>
@@ -6672,7 +6830,7 @@
       <c r="DN4" s="11"/>
       <c r="DO4" s="11"/>
     </row>
-    <row r="5" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="149" t="s">
         <v>40</v>
       </c>
@@ -6801,7 +6959,7 @@
       <c r="DN5" s="11"/>
       <c r="DO5" s="11"/>
     </row>
-    <row r="6" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>40</v>
       </c>
@@ -6930,7 +7088,7 @@
       <c r="DN6" s="11"/>
       <c r="DO6" s="11"/>
     </row>
-    <row r="7" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:119" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="149" t="s">
         <v>40</v>
       </c>
@@ -7059,7 +7217,7 @@
       <c r="DN7" s="11"/>
       <c r="DO7" s="11"/>
     </row>
-    <row r="8" spans="1:119" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:119" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="149" t="s">
         <v>40</v>
       </c>
@@ -7104,7 +7262,7 @@
       <c r="AH8" s="80"/>
       <c r="AI8" s="80"/>
     </row>
-    <row r="9" spans="1:119" s="81" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:119" s="81" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="149" t="s">
         <v>40</v>
       </c>
@@ -7148,7 +7306,7 @@
       <c r="AH9" s="80"/>
       <c r="AI9" s="80"/>
     </row>
-    <row r="10" spans="1:119" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:119" s="81" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="148" t="s">
         <v>63</v>
       </c>
@@ -7191,7 +7349,7 @@
       <c r="AH10" s="80"/>
       <c r="AI10" s="80"/>
     </row>
-    <row r="11" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
         <v>63</v>
       </c>
@@ -7234,7 +7392,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="47"/>
     </row>
-    <row r="12" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="148" t="s">
         <v>63</v>
       </c>
@@ -7277,7 +7435,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="148" t="s">
         <v>63</v>
       </c>
@@ -7322,7 +7480,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="148" t="s">
         <v>63</v>
       </c>
@@ -7367,7 +7525,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="47"/>
     </row>
-    <row r="15" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="148" t="s">
         <v>63</v>
       </c>
@@ -7413,7 +7571,7 @@
       <c r="AI15" s="47"/>
       <c r="AJ15" s="47"/>
     </row>
-    <row r="16" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:119" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="153" t="s">
         <v>70</v>
       </c>
@@ -7458,7 +7616,7 @@
       <c r="AI16" s="47"/>
       <c r="AJ16" s="47"/>
     </row>
-    <row r="17" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="153" t="s">
         <v>70</v>
       </c>
@@ -7504,7 +7662,7 @@
       <c r="AI17" s="47"/>
       <c r="AJ17" s="47"/>
     </row>
-    <row r="18" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153" t="s">
         <v>70</v>
       </c>
@@ -7550,7 +7708,7 @@
       <c r="AI18" s="47"/>
       <c r="AJ18" s="47"/>
     </row>
-    <row r="19" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:36" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="153" t="s">
         <v>70</v>
       </c>
@@ -7596,7 +7754,7 @@
       <c r="AI19" s="47"/>
       <c r="AJ19" s="47"/>
     </row>
-    <row r="20" spans="1:36" s="9" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:36" s="9" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
         <v>70</v>
       </c>
@@ -7642,7 +7800,7 @@
       <c r="AI20" s="47"/>
       <c r="AJ20" s="47"/>
     </row>
-    <row r="21" spans="1:36" s="40" customFormat="1" ht="16.5" thickTop="1">
+    <row r="21" spans="1:36" s="40" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -7650,7 +7808,7 @@
       <c r="E21" s="63"/>
       <c r="F21" s="64"/>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -7659,7 +7817,7 @@
       <c r="F22" s="64"/>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -7668,7 +7826,7 @@
       <c r="F23" s="65"/>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -7677,7 +7835,7 @@
       <c r="F24" s="66"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:36" ht="18">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="102"/>
       <c r="B25" s="102"/>
       <c r="C25" s="102"/>
@@ -7686,43 +7844,43 @@
       <c r="F25" s="68"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -7731,7 +7889,7 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -7740,7 +7898,7 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -7749,7 +7907,7 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -7758,7 +7916,7 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -7767,7 +7925,7 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -7776,7 +7934,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -7785,7 +7943,7 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -7794,7 +7952,7 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7803,7 +7961,7 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7812,7 +7970,7 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -7821,7 +7979,7 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -7830,7 +7988,7 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -7839,7 +7997,7 @@
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7848,7 +8006,7 @@
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -7857,7 +8015,7 @@
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -7866,7 +8024,7 @@
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -7875,7 +8033,7 @@
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -7884,7 +8042,7 @@
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -7893,7 +8051,7 @@
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -7902,7 +8060,7 @@
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -7911,7 +8069,7 @@
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -7920,7 +8078,7 @@
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -7929,7 +8087,7 @@
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -7938,7 +8096,7 @@
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -7959,34 +8117,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="71" customFormat="1" ht="16.5" thickTop="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:119" s="71" customFormat="1" ht="16.8" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -8010,11 +8168,11 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:119" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161"/>
+    <row r="2" spans="1:119" s="71" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="157"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="72"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8033,7 +8191,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:119" s="71" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:119" s="71" customFormat="1" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="149" t="s">
         <v>75</v>
       </c>
@@ -8064,7 +8222,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:119" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:119" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="149" t="s">
         <v>75</v>
       </c>
@@ -8193,7 +8351,7 @@
       <c r="DN4" s="11"/>
       <c r="DO4" s="11"/>
     </row>
-    <row r="5" spans="1:119" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:119" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="149" t="s">
         <v>75</v>
       </c>
@@ -8322,7 +8480,7 @@
       <c r="DN5" s="11"/>
       <c r="DO5" s="11"/>
     </row>
-    <row r="6" spans="1:119" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:119" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>75</v>
       </c>
@@ -8451,7 +8609,7 @@
       <c r="DN6" s="11"/>
       <c r="DO6" s="11"/>
     </row>
-    <row r="7" spans="1:119" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:119" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="149" t="s">
         <v>75</v>
       </c>
@@ -8580,7 +8738,7 @@
       <c r="DN7" s="11"/>
       <c r="DO7" s="11"/>
     </row>
-    <row r="8" spans="1:119" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:119" s="81" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="149" t="s">
         <v>75</v>
       </c>
@@ -8625,7 +8783,7 @@
       <c r="AH8" s="80"/>
       <c r="AI8" s="80"/>
     </row>
-    <row r="9" spans="1:119" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:119" s="81" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="149" t="s">
         <v>75</v>
       </c>
@@ -8670,7 +8828,7 @@
       <c r="AH9" s="80"/>
       <c r="AI9" s="80"/>
     </row>
-    <row r="10" spans="1:119" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:119" s="81" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="148" t="s">
         <v>82</v>
       </c>
@@ -8714,7 +8872,7 @@
       <c r="AH10" s="80"/>
       <c r="AI10" s="80"/>
     </row>
-    <row r="11" spans="1:119" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:119" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
         <v>82</v>
       </c>
@@ -8758,7 +8916,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="47"/>
     </row>
-    <row r="12" spans="1:119" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:119" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="148" t="s">
         <v>82</v>
       </c>
@@ -8801,7 +8959,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:119" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:119" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="148" t="s">
         <v>82</v>
       </c>
@@ -8846,7 +9004,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:119" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:119" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="148" t="s">
         <v>82</v>
       </c>
@@ -8891,7 +9049,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="47"/>
     </row>
-    <row r="15" spans="1:119" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:119" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="148" t="s">
         <v>82</v>
       </c>
@@ -8936,7 +9094,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:119" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:119" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="153" t="s">
         <v>89</v>
       </c>
@@ -8980,7 +9138,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:35" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:35" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="153" t="s">
         <v>89</v>
       </c>
@@ -9025,7 +9183,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:35" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:35" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153" t="s">
         <v>89</v>
       </c>
@@ -9070,7 +9228,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:35" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:35" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="153" t="s">
         <v>89</v>
       </c>
@@ -9115,7 +9273,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="47"/>
     </row>
-    <row r="20" spans="1:35" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:35" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
         <v>89</v>
       </c>
@@ -9160,7 +9318,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="47"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" thickTop="1"/>
+    <row r="21" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -9173,35 +9331,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="44" customWidth="1"/>
     <col min="3" max="3" width="14" style="44" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="127" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="127" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="71" customFormat="1" ht="16.5" thickTop="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:120" s="71" customFormat="1" ht="16.8" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="161" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -9225,11 +9383,11 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:120" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161"/>
+    <row r="2" spans="1:120" s="71" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="157"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="72"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -9249,7 +9407,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:120" s="71" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:120" s="71" customFormat="1" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="149" t="s">
         <v>75</v>
       </c>
@@ -9281,7 +9439,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:120" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:120" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="149" t="s">
         <v>75</v>
       </c>
@@ -9411,7 +9569,7 @@
       <c r="DO4" s="11"/>
       <c r="DP4" s="11"/>
     </row>
-    <row r="5" spans="1:120" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:120" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="149" t="s">
         <v>75</v>
       </c>
@@ -9541,7 +9699,7 @@
       <c r="DO5" s="11"/>
       <c r="DP5" s="11"/>
     </row>
-    <row r="6" spans="1:120" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:120" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="149" t="s">
         <v>75</v>
       </c>
@@ -9670,7 +9828,7 @@
       <c r="DN6" s="11"/>
       <c r="DO6" s="11"/>
     </row>
-    <row r="7" spans="1:120" s="75" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:120" s="75" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="149" t="s">
         <v>75</v>
       </c>
@@ -9799,7 +9957,7 @@
       <c r="DN7" s="11"/>
       <c r="DO7" s="11"/>
     </row>
-    <row r="8" spans="1:120" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:120" s="81" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="149" t="s">
         <v>75</v>
       </c>
@@ -9844,7 +10002,7 @@
       <c r="AH8" s="80"/>
       <c r="AI8" s="80"/>
     </row>
-    <row r="9" spans="1:120" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:120" s="81" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="149" t="s">
         <v>75</v>
       </c>
@@ -9889,7 +10047,7 @@
       <c r="AH9" s="80"/>
       <c r="AI9" s="80"/>
     </row>
-    <row r="10" spans="1:120" s="81" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:120" s="81" customFormat="1" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="148" t="s">
         <v>94</v>
       </c>
@@ -9932,7 +10090,7 @@
       <c r="AH10" s="80"/>
       <c r="AI10" s="80"/>
     </row>
-    <row r="11" spans="1:120" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:120" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
         <v>94</v>
       </c>
@@ -9976,7 +10134,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="47"/>
     </row>
-    <row r="12" spans="1:120" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:120" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="148" t="s">
         <v>94</v>
       </c>
@@ -10021,7 +10179,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="47"/>
     </row>
-    <row r="13" spans="1:120" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:120" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="148" t="s">
         <v>94</v>
       </c>
@@ -10066,7 +10224,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="47"/>
     </row>
-    <row r="14" spans="1:120" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:120" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="148" t="s">
         <v>94</v>
       </c>
@@ -10111,7 +10269,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="47"/>
     </row>
-    <row r="15" spans="1:120" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:120" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="148" t="s">
         <v>94</v>
       </c>
@@ -10156,7 +10314,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="47"/>
     </row>
-    <row r="16" spans="1:120" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:120" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="153" t="s">
         <v>101</v>
       </c>
@@ -10200,7 +10358,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="47"/>
     </row>
-    <row r="17" spans="1:36" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:36" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="153" t="s">
         <v>101</v>
       </c>
@@ -10245,7 +10403,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="47"/>
     </row>
-    <row r="18" spans="1:36" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:36" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="153" t="s">
         <v>101</v>
       </c>
@@ -10290,7 +10448,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="47"/>
     </row>
-    <row r="19" spans="1:36" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:36" s="9" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="153" t="s">
         <v>101</v>
       </c>
@@ -10336,7 +10494,7 @@
       <c r="AI19" s="47"/>
       <c r="AJ19" s="47"/>
     </row>
-    <row r="20" spans="1:36" s="9" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:36" s="9" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153" t="s">
         <v>101</v>
       </c>
@@ -10382,7 +10540,7 @@
       <c r="AI20" s="47"/>
       <c r="AJ20" s="47"/>
     </row>
-    <row r="21" spans="1:36" ht="18.75" thickTop="1">
+    <row r="21" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="102"/>
       <c r="B21" s="102"/>
       <c r="C21" s="102"/>
@@ -10403,1616 +10561,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" activeCellId="1" sqref="D51 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="163" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="163" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" style="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="145">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="165">
         <v>44082</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="167" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="145">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="165">
         <v>44082</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="167" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="145">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="165">
         <v>44084</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="167" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="145">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="165">
         <v>44084</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="167" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="145">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="165">
         <v>44086</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="167" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="145">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="165">
         <v>44086</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="167" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A7" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="162">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="168">
         <v>44088</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="169" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="145">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="165">
         <v>44081</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="169" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="145">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="165">
         <v>44081</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="171" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="145">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="165">
         <v>44083</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="169" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="145">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="165">
         <v>44083</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="169" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="145">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="165">
         <v>44085</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="171" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="145">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="165">
         <v>44085</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="172" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="145">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="165">
         <v>44082</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="167" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="145">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="165">
         <v>44082</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="167" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="145">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="165">
         <v>44084</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="173" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="145">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="165">
         <v>44084</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="173" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="174">
         <v>44086</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="175" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="145">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C19" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C20" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C21" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C23" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C24" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="165">
         <v>44082</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C25" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="165">
+        <v>44082</v>
+      </c>
+      <c r="C26" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="175" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C27" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C28" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="169" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C29" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="169" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C30" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="171" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="174">
+        <v>44086</v>
+      </c>
+      <c r="C31" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C32" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="172" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C33" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="172" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C34" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="169" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C35" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="169" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C36" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="169" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C37" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="165">
+        <v>44088</v>
+      </c>
+      <c r="C38" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="165">
+        <v>252</v>
+      </c>
+      <c r="C39" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="167" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="165">
+        <v>252</v>
+      </c>
+      <c r="C40" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="172" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C41" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C42" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C43" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="169" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C44" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="177" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C45" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="145">
+      <c r="D45" s="177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C46" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="167" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C47" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="167" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C48" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C49" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C50" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C51" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C52" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C53" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="165">
         <v>44082</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C54" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="165">
+        <v>44082</v>
+      </c>
+      <c r="C55" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C56" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="178" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C57" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="178" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C58" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="179" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C59" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="169" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C60" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="177" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C61" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="145">
+      <c r="D61" s="167" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C62" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="177" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C63" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="166">
+        <v>44085</v>
+      </c>
+      <c r="C64" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C65" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C66" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="167" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C67" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="167" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C68" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C69" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="165">
+        <v>44085</v>
+      </c>
+      <c r="C70" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="180" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="165">
+        <v>44088</v>
+      </c>
+      <c r="C71" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="165">
+        <v>44082</v>
+      </c>
+      <c r="C72" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="167" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="165">
+        <v>44082</v>
+      </c>
+      <c r="C73" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="177" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="165">
         <v>44084</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C74" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="167" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C75" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="172" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C76" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C77" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="172" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C78" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="145">
+      <c r="D78" s="177" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C79" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="167" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C80" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="179" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C81" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="167" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="166">
+        <v>44085</v>
+      </c>
+      <c r="C82" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="165">
+        <v>44082</v>
+      </c>
+      <c r="C83" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="165">
+        <v>44082</v>
+      </c>
+      <c r="C84" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="167" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="165">
         <v>44084</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C85" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="167" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="165">
+        <v>44084</v>
+      </c>
+      <c r="C86" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="169" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C87" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="177" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="165">
+        <v>44086</v>
+      </c>
+      <c r="C88" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="172" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C89" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="172" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="165">
+        <v>44081</v>
+      </c>
+      <c r="C90" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D90" s="167" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C91" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="D91" s="167" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="165">
+        <v>44083</v>
+      </c>
+      <c r="C92" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A25" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="20">
-        <v>44088</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="D92" s="167" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="166">
+        <v>44085</v>
+      </c>
+      <c r="C93" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A32" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A34" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A35" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C35" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A36" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A37" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C37" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="35">
-        <v>44086</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="62" t="s">
+      <c r="D93" s="170" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="20">
-        <v>44088</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="145">
-        <v>252</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="145">
-        <v>252</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C50" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A54" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C54" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A55" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C55" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A56" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C56" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A57" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C57" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A58" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C58" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A59" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C59" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A60" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="97">
-        <v>44085</v>
-      </c>
-      <c r="C60" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="99" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="104" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C65" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C66" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="20">
-        <v>44088</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="107" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="108" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="109" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C72" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="111" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C73" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C74" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="112" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C75" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C76" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="115" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C77" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="116" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="27" thickTop="1" thickBot="1">
-      <c r="A78" s="153" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="117">
-        <v>44085</v>
-      </c>
-      <c r="C78" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="119" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="116" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="120" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="20">
-        <v>44088</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="122" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C90" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C91" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="123" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="153" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="124" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="153" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="153" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="125" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="153" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="116" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="153" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="117">
-        <v>44085</v>
-      </c>
-      <c r="C96" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="128" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B98" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" s="129" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B99" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="130" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B100" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="131" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C101" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="132" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" s="145">
-        <v>44085</v>
-      </c>
-      <c r="C102" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="134" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B103" s="20">
-        <v>44088</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="136" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="145">
-        <v>44082</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="131" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" s="130" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" s="145">
-        <v>44084</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="138" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C108" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="140" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B109" s="145">
-        <v>44086</v>
-      </c>
-      <c r="C109" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D109" s="141" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="142" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="145">
-        <v>44081</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="131" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="143" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" s="145">
-        <v>44083</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="131" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="153" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="117">
-        <v>44085</v>
-      </c>
-      <c r="C114" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="144" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" thickTop="1"/>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/calendrier Ex printemps 2019-2020ML.xlsx
+++ b/db/calendrier Ex printemps 2019-2020ML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="-45" windowWidth="8910" windowHeight="11955" activeTab="7"/>
+    <workbookView xWindow="15165" yWindow="-45" windowWidth="8910" windowHeight="11955" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SMP" sheetId="1" r:id="rId1"/>
@@ -1817,6 +1817,27 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1837,27 +1858,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1897,7 +1897,7 @@
         <xdr:cNvPr id="2" name="Line 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,24 +2239,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="13.5" thickTop="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="186" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="187"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
       <c r="A3" s="146" t="s">
@@ -2630,26 +2630,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="186" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="187"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
@@ -4839,25 +4839,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" ht="16.5" thickTop="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="186" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:119" ht="16.5" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="187"/>
       <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:119" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -6605,16 +6605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="186" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -6639,10 +6639,10 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:119" s="71" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="187"/>
       <c r="E2" s="72"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8126,16 +8126,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" s="71" customFormat="1" ht="16.5" thickTop="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="186" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -8160,10 +8160,10 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:119" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="187"/>
       <c r="E2" s="72"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -9341,16 +9341,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" s="71" customFormat="1" ht="16.5" thickTop="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="186" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -9375,10 +9375,10 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:120" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="180"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="187"/>
       <c r="E2" s="72"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -10555,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E99" sqref="A1:E99"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13682,7 +13682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D51" sqref="A1:E99"/>
     </sheetView>
   </sheetViews>
@@ -13692,1685 +13692,1685 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="186">
+      <c r="A1" s="179">
         <v>1</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="181">
+      <c r="C1" s="174">
         <v>44082</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="E1" s="176" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="186">
+      <c r="A2" s="179">
         <v>2</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="181">
+      <c r="C2" s="174">
         <v>44082</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="176" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="186">
+      <c r="A3" s="179">
         <v>3</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="181">
+      <c r="C3" s="174">
         <v>44084</v>
       </c>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="183" t="s">
+      <c r="E3" s="176" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="186">
+      <c r="A4" s="179">
         <v>4</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="181">
+      <c r="C4" s="174">
         <v>44084</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="176" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="186">
+      <c r="A5" s="179">
         <v>5</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="181">
+      <c r="C5" s="174">
         <v>44086</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="176" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="186">
+      <c r="A6" s="179">
         <v>6</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="181">
+      <c r="C6" s="174">
         <v>44086</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="183" t="s">
+      <c r="E6" s="176" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="186">
+      <c r="A7" s="179">
         <v>7</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="181">
+      <c r="C7" s="174">
         <v>44088</v>
       </c>
-      <c r="D7" s="184" t="s">
+      <c r="D7" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="182" t="s">
+      <c r="E7" s="175" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="186">
+      <c r="A8" s="179">
         <v>8</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="181">
+      <c r="C8" s="174">
         <v>44081</v>
       </c>
-      <c r="D8" s="181" t="s">
+      <c r="D8" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="182" t="s">
+      <c r="E8" s="175" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="186">
+      <c r="A9" s="179">
         <v>9</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="181">
+      <c r="C9" s="174">
         <v>44081</v>
       </c>
-      <c r="D9" s="181" t="s">
+      <c r="D9" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="182" t="s">
+      <c r="E9" s="175" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="186">
+      <c r="A10" s="179">
         <v>10</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="181">
+      <c r="C10" s="174">
         <v>44083</v>
       </c>
-      <c r="D10" s="181" t="s">
+      <c r="D10" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="182" t="s">
+      <c r="E10" s="175" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="186">
+      <c r="A11" s="179">
         <v>11</v>
       </c>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="181">
+      <c r="C11" s="174">
         <v>44083</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="182" t="s">
+      <c r="E11" s="175" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="186">
+      <c r="A12" s="179">
         <v>12</v>
       </c>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="181">
+      <c r="C12" s="174">
         <v>44085</v>
       </c>
-      <c r="D12" s="181" t="s">
+      <c r="D12" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="182" t="s">
+      <c r="E12" s="175" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="186">
+      <c r="A13" s="179">
         <v>13</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="181">
+      <c r="C13" s="174">
         <v>44085</v>
       </c>
-      <c r="D13" s="181" t="s">
+      <c r="D13" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="175" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="186">
+      <c r="A14" s="179">
         <v>14</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="181">
+      <c r="C14" s="174">
         <v>44082</v>
       </c>
-      <c r="D14" s="181" t="s">
+      <c r="D14" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="176" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="186">
+      <c r="A15" s="179">
         <v>15</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="181">
+      <c r="C15" s="174">
         <v>44082</v>
       </c>
-      <c r="D15" s="181" t="s">
+      <c r="D15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="176" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="186">
+      <c r="A16" s="179">
         <v>16</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="181">
+      <c r="C16" s="174">
         <v>44084</v>
       </c>
-      <c r="D16" s="181" t="s">
+      <c r="D16" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="183" t="s">
+      <c r="E16" s="176" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="186">
+      <c r="A17" s="179">
         <v>17</v>
       </c>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="181">
+      <c r="C17" s="174">
         <v>44084</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="183" t="s">
+      <c r="E17" s="176" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="186">
+      <c r="A18" s="179">
         <v>18</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="181">
+      <c r="C18" s="174">
         <v>44086</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="184" t="s">
+      <c r="E18" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="186">
+      <c r="A19" s="179">
         <v>19</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="174">
         <v>44081</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="184" t="s">
+      <c r="E19" s="177" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="186">
+      <c r="A20" s="179">
         <v>20</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="174">
         <v>44081</v>
       </c>
-      <c r="D20" s="181" t="s">
+      <c r="D20" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="182" t="s">
+      <c r="E20" s="175" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="186">
+      <c r="A21" s="179">
         <v>21</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="174">
         <v>44083</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="182" t="s">
+      <c r="E21" s="175" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="186">
+      <c r="A22" s="179">
         <v>22</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="181">
+      <c r="C22" s="174">
         <v>44083</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="182" t="s">
+      <c r="E22" s="175" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="186">
+      <c r="A23" s="179">
         <v>23</v>
       </c>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="174">
         <v>44085</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="175" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="186">
+      <c r="A24" s="179">
         <v>24</v>
       </c>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="181">
+      <c r="C24" s="174">
         <v>44085</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="182" t="s">
+      <c r="E24" s="175" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="186">
+      <c r="A25" s="179">
         <v>25</v>
       </c>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="181">
+      <c r="C25" s="174">
         <v>44082</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="184" t="s">
+      <c r="E25" s="177" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="186">
+      <c r="A26" s="179">
         <v>26</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="181">
+      <c r="C26" s="174">
         <v>44082</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="184" t="s">
+      <c r="E26" s="177" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="186">
+      <c r="A27" s="179">
         <v>27</v>
       </c>
-      <c r="B27" s="184" t="s">
+      <c r="B27" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="174">
         <v>44084</v>
       </c>
-      <c r="D27" s="181" t="s">
+      <c r="D27" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="184" t="s">
+      <c r="E27" s="177" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="186">
+      <c r="A28" s="179">
         <v>28</v>
       </c>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="181">
+      <c r="C28" s="174">
         <v>44084</v>
       </c>
-      <c r="D28" s="184" t="s">
+      <c r="D28" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="182" t="s">
+      <c r="E28" s="175" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="186">
+      <c r="A29" s="179">
         <v>29</v>
       </c>
-      <c r="B29" s="184" t="s">
+      <c r="B29" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="181">
+      <c r="C29" s="174">
         <v>44084</v>
       </c>
-      <c r="D29" s="184" t="s">
+      <c r="D29" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="182" t="s">
+      <c r="E29" s="175" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="186">
+      <c r="A30" s="179">
         <v>30</v>
       </c>
-      <c r="B30" s="184" t="s">
+      <c r="B30" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="181">
+      <c r="C30" s="174">
         <v>44084</v>
       </c>
-      <c r="D30" s="184" t="s">
+      <c r="D30" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="182" t="s">
+      <c r="E30" s="175" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="186">
+      <c r="A31" s="179">
         <v>31</v>
       </c>
-      <c r="B31" s="184" t="s">
+      <c r="B31" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="181">
+      <c r="C31" s="174">
         <v>44086</v>
       </c>
-      <c r="D31" s="181" t="s">
+      <c r="D31" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="184" t="s">
+      <c r="E31" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="186">
+      <c r="A32" s="179">
         <v>32</v>
       </c>
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="181">
+      <c r="C32" s="174">
         <v>44081</v>
       </c>
-      <c r="D32" s="181" t="s">
+      <c r="D32" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="182" t="s">
+      <c r="E32" s="175" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="186">
+      <c r="A33" s="179">
         <v>33</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="181">
+      <c r="C33" s="174">
         <v>44081</v>
       </c>
-      <c r="D33" s="181" t="s">
+      <c r="D33" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="182" t="s">
+      <c r="E33" s="175" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="186">
+      <c r="A34" s="179">
         <v>34</v>
       </c>
-      <c r="B34" s="184" t="s">
+      <c r="B34" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="181">
+      <c r="C34" s="174">
         <v>44083</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="175" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="186">
+      <c r="A35" s="179">
         <v>35</v>
       </c>
-      <c r="B35" s="184" t="s">
+      <c r="B35" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="181">
+      <c r="C35" s="174">
         <v>44083</v>
       </c>
-      <c r="D35" s="181" t="s">
+      <c r="D35" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="182" t="s">
+      <c r="E35" s="175" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="186">
+      <c r="A36" s="179">
         <v>36</v>
       </c>
-      <c r="B36" s="184" t="s">
+      <c r="B36" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="181">
+      <c r="C36" s="174">
         <v>44085</v>
       </c>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="182" t="s">
+      <c r="E36" s="175" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="186">
+      <c r="A37" s="179">
         <v>37</v>
       </c>
-      <c r="B37" s="184" t="s">
+      <c r="B37" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="181">
+      <c r="C37" s="174">
         <v>44085</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="182" t="s">
+      <c r="E37" s="175" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="186">
+      <c r="A38" s="179">
         <v>38</v>
       </c>
-      <c r="B38" s="184" t="s">
+      <c r="B38" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="181">
+      <c r="C38" s="174">
         <v>44088</v>
       </c>
-      <c r="D38" s="181" t="s">
+      <c r="D38" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="182" t="s">
+      <c r="E38" s="175" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="186">
+      <c r="A39" s="179">
         <v>39</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="181">
+      <c r="C39" s="174">
         <v>252</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="176" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="186">
+      <c r="A40" s="179">
         <v>40</v>
       </c>
-      <c r="B40" s="184" t="s">
+      <c r="B40" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="181">
+      <c r="C40" s="174">
         <v>252</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="182" t="s">
+      <c r="E40" s="175" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="186">
+      <c r="A41" s="179">
         <v>41</v>
       </c>
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="181">
+      <c r="C41" s="174">
         <v>44084</v>
       </c>
-      <c r="D41" s="181" t="s">
+      <c r="D41" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="183" t="s">
+      <c r="E41" s="176" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="186">
+      <c r="A42" s="179">
         <v>42</v>
       </c>
-      <c r="B42" s="184" t="s">
+      <c r="B42" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="181">
+      <c r="C42" s="174">
         <v>44084</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="183" t="s">
+      <c r="E42" s="176" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="186">
+      <c r="A43" s="179">
         <v>43</v>
       </c>
-      <c r="B43" s="184" t="s">
+      <c r="B43" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="181">
+      <c r="C43" s="174">
         <v>44086</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="182" t="s">
+      <c r="E43" s="175" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="186">
+      <c r="A44" s="179">
         <v>44</v>
       </c>
-      <c r="B44" s="184" t="s">
+      <c r="B44" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="181">
+      <c r="C44" s="174">
         <v>44086</v>
       </c>
-      <c r="D44" s="181" t="s">
+      <c r="D44" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="183" t="s">
+      <c r="E44" s="176" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="186">
+      <c r="A45" s="179">
         <v>45</v>
       </c>
-      <c r="B45" s="184" t="s">
+      <c r="B45" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="181">
+      <c r="C45" s="174">
         <v>44081</v>
       </c>
-      <c r="D45" s="181" t="s">
+      <c r="D45" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="183" t="s">
+      <c r="E45" s="176" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="186">
+      <c r="A46" s="179">
         <v>46</v>
       </c>
-      <c r="B46" s="184" t="s">
+      <c r="B46" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="181">
+      <c r="C46" s="174">
         <v>44081</v>
       </c>
-      <c r="D46" s="181" t="s">
+      <c r="D46" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="183" t="s">
+      <c r="E46" s="176" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="186">
+      <c r="A47" s="179">
         <v>47</v>
       </c>
-      <c r="B47" s="184" t="s">
+      <c r="B47" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="181">
+      <c r="C47" s="174">
         <v>44081</v>
       </c>
-      <c r="D47" s="181" t="s">
+      <c r="D47" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="183" t="s">
+      <c r="E47" s="176" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="186">
+      <c r="A48" s="179">
         <v>48</v>
       </c>
-      <c r="B48" s="184" t="s">
+      <c r="B48" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="181">
+      <c r="C48" s="174">
         <v>44081</v>
       </c>
-      <c r="D48" s="181" t="s">
+      <c r="D48" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="183" t="s">
+      <c r="E48" s="176" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="186">
+      <c r="A49" s="179">
         <v>49</v>
       </c>
-      <c r="B49" s="184" t="s">
+      <c r="B49" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="181">
+      <c r="C49" s="174">
         <v>44081</v>
       </c>
-      <c r="D49" s="181" t="s">
+      <c r="D49" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="183" t="s">
+      <c r="E49" s="176" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="186">
+      <c r="A50" s="179">
         <v>50</v>
       </c>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="181">
+      <c r="C50" s="174">
         <v>44081</v>
       </c>
-      <c r="D50" s="181" t="s">
+      <c r="D50" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="183" t="s">
+      <c r="E50" s="176" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="186">
+      <c r="A51" s="179">
         <v>51</v>
       </c>
-      <c r="B51" s="184" t="s">
+      <c r="B51" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="181">
+      <c r="C51" s="174">
         <v>44083</v>
       </c>
-      <c r="D51" s="184" t="s">
+      <c r="D51" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="183" t="s">
+      <c r="E51" s="176" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="186">
+      <c r="A52" s="179">
         <v>52</v>
       </c>
-      <c r="B52" s="184" t="s">
+      <c r="B52" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="181">
+      <c r="C52" s="174">
         <v>44083</v>
       </c>
-      <c r="D52" s="184" t="s">
+      <c r="D52" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="183" t="s">
+      <c r="E52" s="176" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="186">
+      <c r="A53" s="179">
         <v>53</v>
       </c>
-      <c r="B53" s="184" t="s">
+      <c r="B53" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="181">
+      <c r="C53" s="174">
         <v>44083</v>
       </c>
-      <c r="D53" s="184" t="s">
+      <c r="D53" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="183" t="s">
+      <c r="E53" s="176" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="186">
+      <c r="A54" s="179">
         <v>54</v>
       </c>
-      <c r="B54" s="184" t="s">
+      <c r="B54" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="181">
+      <c r="C54" s="174">
         <v>44083</v>
       </c>
-      <c r="D54" s="184" t="s">
+      <c r="D54" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="183" t="s">
+      <c r="E54" s="176" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="186">
+      <c r="A55" s="179">
         <v>55</v>
       </c>
-      <c r="B55" s="184" t="s">
+      <c r="B55" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="181">
+      <c r="C55" s="174">
         <v>44083</v>
       </c>
-      <c r="D55" s="184" t="s">
+      <c r="D55" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="183" t="s">
+      <c r="E55" s="176" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="186">
+      <c r="A56" s="179">
         <v>56</v>
       </c>
-      <c r="B56" s="184" t="s">
+      <c r="B56" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="181">
+      <c r="C56" s="174">
         <v>44083</v>
       </c>
-      <c r="D56" s="184" t="s">
+      <c r="D56" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="183" t="s">
+      <c r="E56" s="176" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="186">
+      <c r="A57" s="179">
         <v>57</v>
       </c>
-      <c r="B57" s="184" t="s">
+      <c r="B57" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="181">
+      <c r="C57" s="174">
         <v>44085</v>
       </c>
-      <c r="D57" s="184" t="s">
+      <c r="D57" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="184" t="s">
+      <c r="E57" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="186">
+      <c r="A58" s="179">
         <v>58</v>
       </c>
-      <c r="B58" s="184" t="s">
+      <c r="B58" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="181">
+      <c r="C58" s="174">
         <v>44085</v>
       </c>
-      <c r="D58" s="184" t="s">
+      <c r="D58" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="184" t="s">
+      <c r="E58" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="186">
+      <c r="A59" s="179">
         <v>59</v>
       </c>
-      <c r="B59" s="184" t="s">
+      <c r="B59" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="181">
+      <c r="C59" s="174">
         <v>44085</v>
       </c>
-      <c r="D59" s="184" t="s">
+      <c r="D59" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="184" t="s">
+      <c r="E59" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="186">
+      <c r="A60" s="179">
         <v>60</v>
       </c>
-      <c r="B60" s="184" t="s">
+      <c r="B60" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="181">
+      <c r="C60" s="174">
         <v>44082</v>
       </c>
-      <c r="D60" s="181" t="s">
+      <c r="D60" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="185" t="s">
+      <c r="E60" s="178" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="186">
+      <c r="A61" s="179">
         <v>61</v>
       </c>
-      <c r="B61" s="184" t="s">
+      <c r="B61" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="181">
+      <c r="C61" s="174">
         <v>44082</v>
       </c>
-      <c r="D61" s="181" t="s">
+      <c r="D61" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="183" t="s">
+      <c r="E61" s="176" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="186">
+      <c r="A62" s="179">
         <v>62</v>
       </c>
-      <c r="B62" s="184" t="s">
+      <c r="B62" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="181">
+      <c r="C62" s="174">
         <v>44084</v>
       </c>
-      <c r="D62" s="181" t="s">
+      <c r="D62" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="185" t="s">
+      <c r="E62" s="178" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="186">
+      <c r="A63" s="179">
         <v>63</v>
       </c>
-      <c r="B63" s="184" t="s">
+      <c r="B63" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="181">
+      <c r="C63" s="174">
         <v>44084</v>
       </c>
-      <c r="D63" s="181" t="s">
+      <c r="D63" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="185" t="s">
+      <c r="E63" s="178" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="186">
+      <c r="A64" s="179">
         <v>64</v>
       </c>
-      <c r="B64" s="184" t="s">
+      <c r="B64" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="181">
+      <c r="C64" s="174">
         <v>44086</v>
       </c>
-      <c r="D64" s="181" t="s">
+      <c r="D64" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="184" t="s">
+      <c r="E64" s="177" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="186">
+      <c r="A65" s="179">
         <v>65</v>
       </c>
-      <c r="B65" s="184" t="s">
+      <c r="B65" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="181">
+      <c r="C65" s="174">
         <v>44086</v>
       </c>
-      <c r="D65" s="181" t="s">
+      <c r="D65" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="182" t="s">
+      <c r="E65" s="175" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="186">
+      <c r="A66" s="179">
         <v>66</v>
       </c>
-      <c r="B66" s="184" t="s">
+      <c r="B66" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="181">
+      <c r="C66" s="174">
         <v>44081</v>
       </c>
-      <c r="D66" s="181" t="s">
+      <c r="D66" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="183" t="s">
+      <c r="E66" s="176" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="186">
+      <c r="A67" s="179">
         <v>67</v>
       </c>
-      <c r="B67" s="184" t="s">
+      <c r="B67" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="181">
+      <c r="C67" s="174">
         <v>44081</v>
       </c>
-      <c r="D67" s="181" t="s">
+      <c r="D67" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="183" t="s">
+      <c r="E67" s="176" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="186">
+      <c r="A68" s="179">
         <v>68</v>
       </c>
-      <c r="B68" s="184" t="s">
+      <c r="B68" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="181">
+      <c r="C68" s="174">
         <v>44083</v>
       </c>
-      <c r="D68" s="181" t="s">
+      <c r="D68" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="183" t="s">
+      <c r="E68" s="176" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="186">
+      <c r="A69" s="179">
         <v>69</v>
       </c>
-      <c r="B69" s="184" t="s">
+      <c r="B69" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="181">
+      <c r="C69" s="174">
         <v>44083</v>
       </c>
-      <c r="D69" s="181" t="s">
+      <c r="D69" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="183" t="s">
+      <c r="E69" s="176" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="186">
+      <c r="A70" s="179">
         <v>70</v>
       </c>
-      <c r="B70" s="184" t="s">
+      <c r="B70" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="181">
+      <c r="C70" s="174">
         <v>44085</v>
       </c>
-      <c r="D70" s="184" t="s">
+      <c r="D70" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="184" t="s">
+      <c r="E70" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="186">
+      <c r="A71" s="179">
         <v>71</v>
       </c>
-      <c r="B71" s="184" t="s">
+      <c r="B71" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="181">
+      <c r="C71" s="174">
         <v>44081</v>
       </c>
-      <c r="D71" s="181" t="s">
+      <c r="D71" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="183" t="s">
+      <c r="E71" s="176" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="186">
+      <c r="A72" s="179">
         <v>72</v>
       </c>
-      <c r="B72" s="184" t="s">
+      <c r="B72" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="181">
+      <c r="C72" s="174">
         <v>44081</v>
       </c>
-      <c r="D72" s="181" t="s">
+      <c r="D72" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="183" t="s">
+      <c r="E72" s="176" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="186">
+      <c r="A73" s="179">
         <v>73</v>
       </c>
-      <c r="B73" s="184" t="s">
+      <c r="B73" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="181">
+      <c r="C73" s="174">
         <v>44083</v>
       </c>
-      <c r="D73" s="181" t="s">
+      <c r="D73" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="183" t="s">
+      <c r="E73" s="176" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="186">
+      <c r="A74" s="179">
         <v>74</v>
       </c>
-      <c r="B74" s="184" t="s">
+      <c r="B74" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="181">
+      <c r="C74" s="174">
         <v>44083</v>
       </c>
-      <c r="D74" s="181" t="s">
+      <c r="D74" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="183" t="s">
+      <c r="E74" s="176" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="186">
+      <c r="A75" s="179">
         <v>75</v>
       </c>
-      <c r="B75" s="184" t="s">
+      <c r="B75" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="181">
+      <c r="C75" s="174">
         <v>44085</v>
       </c>
-      <c r="D75" s="181" t="s">
+      <c r="D75" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="183" t="s">
+      <c r="E75" s="176" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="186">
+      <c r="A76" s="179">
         <v>76</v>
       </c>
-      <c r="B76" s="184" t="s">
+      <c r="B76" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="181">
+      <c r="C76" s="174">
         <v>44085</v>
       </c>
-      <c r="D76" s="181" t="s">
+      <c r="D76" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="187" t="s">
+      <c r="E76" s="180" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="186">
+      <c r="A77" s="179">
         <v>77</v>
       </c>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="181">
+      <c r="C77" s="174">
         <v>44088</v>
       </c>
-      <c r="D77" s="181" t="s">
+      <c r="D77" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="182" t="s">
+      <c r="E77" s="175" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="186">
+      <c r="A78" s="179">
         <v>78</v>
       </c>
-      <c r="B78" s="184" t="s">
+      <c r="B78" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="181">
+      <c r="C78" s="174">
         <v>44082</v>
       </c>
-      <c r="D78" s="181" t="s">
+      <c r="D78" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="183" t="s">
+      <c r="E78" s="176" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="186">
+      <c r="A79" s="179">
         <v>79</v>
       </c>
-      <c r="B79" s="184" t="s">
+      <c r="B79" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="181">
+      <c r="C79" s="174">
         <v>44082</v>
       </c>
-      <c r="D79" s="181" t="s">
+      <c r="D79" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="183" t="s">
+      <c r="E79" s="176" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="186">
+      <c r="A80" s="179">
         <v>80</v>
       </c>
-      <c r="B80" s="184" t="s">
+      <c r="B80" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="181">
+      <c r="C80" s="174">
         <v>44084</v>
       </c>
-      <c r="D80" s="181" t="s">
+      <c r="D80" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="183" t="s">
+      <c r="E80" s="176" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="186">
+      <c r="A81" s="179">
         <v>81</v>
       </c>
-      <c r="B81" s="184" t="s">
+      <c r="B81" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="181">
+      <c r="C81" s="174">
         <v>44084</v>
       </c>
-      <c r="D81" s="181" t="s">
+      <c r="D81" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="182" t="s">
+      <c r="E81" s="175" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="186">
+      <c r="A82" s="179">
         <v>82</v>
       </c>
-      <c r="B82" s="184" t="s">
+      <c r="B82" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="181">
+      <c r="C82" s="174">
         <v>44086</v>
       </c>
-      <c r="D82" s="181" t="s">
+      <c r="D82" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="183" t="s">
+      <c r="E82" s="176" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="186">
+      <c r="A83" s="179">
         <v>83</v>
       </c>
-      <c r="B83" s="184" t="s">
+      <c r="B83" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="181">
+      <c r="C83" s="174">
         <v>44086</v>
       </c>
-      <c r="D83" s="181" t="s">
+      <c r="D83" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="182" t="s">
+      <c r="E83" s="175" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="186">
+      <c r="A84" s="179">
         <v>84</v>
       </c>
-      <c r="B84" s="184" t="s">
+      <c r="B84" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="181">
+      <c r="C84" s="174">
         <v>44081</v>
       </c>
-      <c r="D84" s="181" t="s">
+      <c r="D84" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="183" t="s">
+      <c r="E84" s="176" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="186">
+      <c r="A85" s="179">
         <v>85</v>
       </c>
-      <c r="B85" s="184" t="s">
+      <c r="B85" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="181">
+      <c r="C85" s="174">
         <v>44081</v>
       </c>
-      <c r="D85" s="181" t="s">
+      <c r="D85" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="183" t="s">
+      <c r="E85" s="176" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="186">
+      <c r="A86" s="179">
         <v>86</v>
       </c>
-      <c r="B86" s="184" t="s">
+      <c r="B86" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="181">
+      <c r="C86" s="174">
         <v>44083</v>
       </c>
-      <c r="D86" s="181" t="s">
+      <c r="D86" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="184" t="s">
+      <c r="E86" s="177" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="186">
+      <c r="A87" s="179">
         <v>87</v>
       </c>
-      <c r="B87" s="184" t="s">
+      <c r="B87" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="181">
+      <c r="C87" s="174">
         <v>44083</v>
       </c>
-      <c r="D87" s="181" t="s">
+      <c r="D87" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="183" t="s">
+      <c r="E87" s="176" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="186">
+      <c r="A88" s="179">
         <v>88</v>
       </c>
-      <c r="B88" s="184" t="s">
+      <c r="B88" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="181">
+      <c r="C88" s="174">
         <v>44085</v>
       </c>
-      <c r="D88" s="184" t="s">
+      <c r="D88" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="184" t="s">
+      <c r="E88" s="177" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="186">
+      <c r="A89" s="179">
         <v>89</v>
       </c>
-      <c r="B89" s="184" t="s">
+      <c r="B89" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="181">
+      <c r="C89" s="174">
         <v>44082</v>
       </c>
-      <c r="D89" s="181" t="s">
+      <c r="D89" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="183" t="s">
+      <c r="E89" s="176" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="186">
+      <c r="A90" s="179">
         <v>90</v>
       </c>
-      <c r="B90" s="184" t="s">
+      <c r="B90" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C90" s="181">
+      <c r="C90" s="174">
         <v>44082</v>
       </c>
-      <c r="D90" s="181" t="s">
+      <c r="D90" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="183" t="s">
+      <c r="E90" s="176" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="186">
+      <c r="A91" s="179">
         <v>91</v>
       </c>
-      <c r="B91" s="184" t="s">
+      <c r="B91" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="181">
+      <c r="C91" s="174">
         <v>44084</v>
       </c>
-      <c r="D91" s="181" t="s">
+      <c r="D91" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="183" t="s">
+      <c r="E91" s="176" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="186">
+      <c r="A92" s="179">
         <v>92</v>
       </c>
-      <c r="B92" s="184" t="s">
+      <c r="B92" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="181">
+      <c r="C92" s="174">
         <v>44084</v>
       </c>
-      <c r="D92" s="181" t="s">
+      <c r="D92" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="182" t="s">
+      <c r="E92" s="175" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="186">
+      <c r="A93" s="179">
         <v>93</v>
       </c>
-      <c r="B93" s="184" t="s">
+      <c r="B93" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="181">
+      <c r="C93" s="174">
         <v>44086</v>
       </c>
-      <c r="D93" s="181" t="s">
+      <c r="D93" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="183" t="s">
+      <c r="E93" s="176" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="186">
+      <c r="A94" s="179">
         <v>94</v>
       </c>
-      <c r="B94" s="184" t="s">
+      <c r="B94" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="181">
+      <c r="C94" s="174">
         <v>44086</v>
       </c>
-      <c r="D94" s="181" t="s">
+      <c r="D94" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="182" t="s">
+      <c r="E94" s="175" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="186">
+      <c r="A95" s="179">
         <v>95</v>
       </c>
-      <c r="B95" s="184" t="s">
+      <c r="B95" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="181">
+      <c r="C95" s="174">
         <v>44081</v>
       </c>
-      <c r="D95" s="181" t="s">
+      <c r="D95" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="182" t="s">
+      <c r="E95" s="175" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="186">
+      <c r="A96" s="179">
         <v>96</v>
       </c>
-      <c r="B96" s="184" t="s">
+      <c r="B96" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="181">
+      <c r="C96" s="174">
         <v>44081</v>
       </c>
-      <c r="D96" s="181" t="s">
+      <c r="D96" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="183" t="s">
+      <c r="E96" s="176" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="186">
+      <c r="A97" s="179">
         <v>97</v>
       </c>
-      <c r="B97" s="184" t="s">
+      <c r="B97" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="C97" s="181">
+      <c r="C97" s="174">
         <v>44083</v>
       </c>
-      <c r="D97" s="181" t="s">
+      <c r="D97" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="183" t="s">
+      <c r="E97" s="176" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="186">
+      <c r="A98" s="179">
         <v>98</v>
       </c>
-      <c r="B98" s="184" t="s">
+      <c r="B98" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="181">
+      <c r="C98" s="174">
         <v>44083</v>
       </c>
-      <c r="D98" s="181" t="s">
+      <c r="D98" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="183" t="s">
+      <c r="E98" s="176" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="186">
+      <c r="A99" s="179">
         <v>99</v>
       </c>
-      <c r="B99" s="184" t="s">
+      <c r="B99" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="C99" s="181">
+      <c r="C99" s="174">
         <v>44085</v>
       </c>
-      <c r="D99" s="184" t="s">
+      <c r="D99" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="184" t="s">
+      <c r="E99" s="177" t="s">
         <v>28</v>
       </c>
     </row>
